--- a/biology/Zoologie/Conus_lozeti/Conus_lozeti.xlsx
+++ b/biology/Zoologie/Conus_lozeti/Conus_lozeti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus lozeti est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 50 mm et 65 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de Madagascar.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus lozeti a été décrite pour la première fois en 1980 par le malacologiste français Richard (d)[1] dans Cahiers de l'Indo-Pacifique[2],[3].
-Synonymes
-Conus (Leptoconus) lozeti Richard, 1980 · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus lozeti a été décrite pour la première fois en 1980 par le malacologiste français Richard (d) dans Cahiers de l'Indo-Pacifique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_lozeti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_lozeti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Leptoconus) lozeti Richard, 1980 · non accepté
 Conus (Malagasyconus) lozeti Richard, 1980 · appellation alternative
 Conus (Plicaustraconus) lozeti Richard, 1980 · non accepté
 Endemoconus lozeti (Richard, 1980) · non accepté
